--- a/swift-combine-1.xlsx
+++ b/swift-combine-1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung/blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DDA633-3925-4E4D-8690-D47E08A7684B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5E88EA-ED20-1D40-9BE7-5D94AF44DE5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="17500" xr2:uid="{A3D4CE5C-7380-4F9F-98BB-3F321C52265A}"/>
+    <workbookView xWindow="2220" yWindow="500" windowWidth="27540" windowHeight="17500" xr2:uid="{A3D4CE5C-7380-4F9F-98BB-3F321C52265A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="245">
   <si>
     <t>Cộng đồng lập trình PHP, NodeJS, iOS, Android</t>
   </si>
@@ -754,6 +755,12 @@
   </si>
   <si>
     <t>Front End Land VN</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/techbasevietnam/posts/2886550384945269</t>
+  </si>
+  <si>
+    <t>Lỡ nhúng chàm RxSwift lâu rồi. Giờ sao chuyển qua Combine hết được 😂</t>
   </si>
 </sst>
 </file>
@@ -784,7 +791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +802,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEDEDED"/>
         <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -835,11 +848,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1188,16 +1202,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD48223-D609-4989-98E2-71E7CE48F3FF}">
-  <dimension ref="A1:R129"/>
+  <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="82.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
@@ -1275,7 +1289,7 @@
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -1575,7 +1589,7 @@
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C17">
@@ -1645,7 +1659,7 @@
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C19">
@@ -1727,7 +1741,7 @@
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C21">
@@ -1819,7 +1833,7 @@
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C25">
@@ -2042,7 +2056,7 @@
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C33">
@@ -2218,7 +2232,7 @@
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C43">
@@ -2824,7 +2838,7 @@
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C67">
@@ -3154,7 +3168,7 @@
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C82">
@@ -3465,7 +3479,7 @@
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C95">
@@ -3527,7 +3541,7 @@
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C97">
@@ -3615,7 +3629,7 @@
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C99">
@@ -3644,7 +3658,7 @@
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C100">
@@ -3846,7 +3860,7 @@
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C107">
@@ -3890,7 +3904,7 @@
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>231</v>
       </c>
       <c r="C108">
@@ -3930,7 +3944,7 @@
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C110">
@@ -4031,7 +4045,7 @@
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C114">
@@ -4085,7 +4099,17 @@
     <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="2:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{25737F87-2FA0-4EBC-A95C-7DFD06075A89}"/>
@@ -4208,4 +4232,32 @@
     <tablePart r:id="rId115"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13AB909-297C-8045-91C6-6661AB3B79F9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>